--- a/results/time_series_results/res_trafo/loading_percent.xlsx
+++ b/results/time_series_results/res_trafo/loading_percent.xlsx
@@ -382,7 +382,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65.33986846612544</v>
+        <v>66.17700029560181</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -390,7 +390,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62.3071820836699</v>
+        <v>64.3132809467015</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -398,7 +398,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>51.107455900673</v>
+        <v>52.96497482736369</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -406,7 +406,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>43.3814162189701</v>
+        <v>44.7259926005669</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -414,7 +414,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>33.09774203398332</v>
+        <v>34.1415177915288</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -422,7 +422,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31.8369113050042</v>
+        <v>32.731465723733</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -430,7 +430,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>28.62484840592741</v>
+        <v>29.62944657580023</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -438,7 +438,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>26.22663515752324</v>
+        <v>27.03801598453984</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -446,7 +446,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.76397892055945</v>
+        <v>32.44973023476877</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -454,7 +454,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.87890989334132</v>
+        <v>33.07407515792746</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -462,7 +462,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.75214766163283</v>
+        <v>39.99455994298932</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -470,7 +470,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>42.26267453829232</v>
+        <v>44.01141962262463</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -478,7 +478,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51.00116060716302</v>
+        <v>51.53389371092675</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -486,7 +486,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>55.88381996396438</v>
+        <v>56.070251801041</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -494,7 +494,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56.25777445480911</v>
+        <v>56.29471670192135</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -502,7 +502,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>57.77207942508571</v>
+        <v>57.70559493094466</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -510,7 +510,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>62.04448340796718</v>
+        <v>62.145223502939</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -518,7 +518,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>63.80268917938668</v>
+        <v>63.61772793411302</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -526,7 +526,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>56.54707709348267</v>
+        <v>56.76363197214196</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -534,7 +534,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>46.5239612453579</v>
+        <v>47.22948740819205</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -542,7 +542,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>39.52371152943967</v>
+        <v>40.94637459894447</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -550,7 +550,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>50.31083622141617</v>
+        <v>52.25011844988872</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -558,7 +558,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>58.5481375244188</v>
+        <v>59.61840881277823</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -566,7 +566,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>63.86764483427767</v>
+        <v>64.86976160150824</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -574,7 +574,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>52.57880465549196</v>
+        <v>54.44265081577156</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -582,7 +582,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>46.85439683725309</v>
+        <v>49.17450650012289</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -590,7 +590,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>46.35371104110391</v>
+        <v>48.70924132182846</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -598,7 +598,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>36.96129946931104</v>
+        <v>38.393284699859</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -606,7 +606,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>26.84154558373915</v>
+        <v>28.06752085121362</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -614,7 +614,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>26.3056626158408</v>
+        <v>27.33198928609488</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -622,7 +622,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>23.75700802392682</v>
+        <v>24.74496832263974</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -630,7 +630,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>24.1728433384982</v>
+        <v>25.25317975027831</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -638,7 +638,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>28.64271411246228</v>
+        <v>30.14288113235389</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -646,7 +646,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>27.62173676601939</v>
+        <v>29.70840259031852</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -654,7 +654,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>38.13105647236206</v>
+        <v>40.87703349997156</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -662,7 +662,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>43.88020435881182</v>
+        <v>46.11887002230749</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -670,7 +670,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>49.69959071552848</v>
+        <v>50.93849776370165</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -678,7 +678,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>46.3596501640871</v>
+        <v>46.74816006326821</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -686,7 +686,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>49.93686334226859</v>
+        <v>49.99990994542433</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -694,7 +694,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>57.81686942647723</v>
+        <v>56.82549467034864</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -702,7 +702,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>68.93941172656397</v>
+        <v>67.4779197722988</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -710,7 +710,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>67.67118103735767</v>
+        <v>68.78612266586023</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -718,7 +718,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>62.07146663792065</v>
+        <v>62.15966594805615</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>54.64698618560343</v>
+        <v>55.51085794097689</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -734,7 +734,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>56.19894621911988</v>
+        <v>56.86509085405302</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -742,7 +742,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>49.27879903641863</v>
+        <v>50.43259827774139</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -750,7 +750,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>54.61829041895068</v>
+        <v>55.4733499674328</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -758,7 +758,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>57.07580310053988</v>
+        <v>57.78630654419283</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -766,7 +766,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>45.45753957338577</v>
+        <v>46.8960476613962</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -774,7 +774,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>47.38269262312938</v>
+        <v>49.25238529537926</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -782,7 +782,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>45.10653075014471</v>
+        <v>46.66073956877849</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -790,7 +790,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>40.74827594318902</v>
+        <v>42.18633315878134</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -798,7 +798,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>34.10165778155017</v>
+        <v>35.22892279998657</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -806,7 +806,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>33.33105707783191</v>
+        <v>34.27539012394472</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -814,7 +814,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>27.74439831632941</v>
+        <v>28.73538249342027</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -822,7 +822,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>24.77931011142278</v>
+        <v>25.83296794820368</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -830,7 +830,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>27.86541275626017</v>
+        <v>29.30831508578762</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -838,7 +838,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>27.60939237413055</v>
+        <v>29.65020586840537</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -846,7 +846,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>42.65420557779073</v>
+        <v>44.92174386856171</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -854,7 +854,7 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>45.63684598064824</v>
+        <v>47.509948393804</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -862,7 +862,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>47.90599964733829</v>
+        <v>48.6273880378031</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -870,7 +870,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>43.94109148094049</v>
+        <v>43.52945576293099</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -878,7 +878,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>45.10733054699291</v>
+        <v>45.31774427951957</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -886,7 +886,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>49.39220897175252</v>
+        <v>49.04152268889943</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -894,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>62.8352123447105</v>
+        <v>62.77095021359782</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -902,7 +902,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>64.70507797385093</v>
+        <v>66.27517418915802</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -910,7 +910,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>55.0823148280798</v>
+        <v>55.82828162788915</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -918,7 +918,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>50.56894237810469</v>
+        <v>51.61245814815128</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -926,7 +926,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>42.39881157146538</v>
+        <v>43.70508935088786</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -934,7 +934,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>39.12118950799564</v>
+        <v>40.65370866331708</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -942,7 +942,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>39.94536516278605</v>
+        <v>41.61706670490064</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -950,7 +950,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>48.4254942889923</v>
+        <v>50.14050718741972</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -958,7 +958,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>42.57188025446687</v>
+        <v>44.22017501267501</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -966,7 +966,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>40.05180223056983</v>
+        <v>42.64328513077786</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -974,7 +974,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>39.19785202398508</v>
+        <v>41.03976526218637</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -982,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>33.38581179428461</v>
+        <v>34.61328945246705</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -990,7 +990,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>30.40638041576208</v>
+        <v>31.40423714089812</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -998,7 +998,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>29.45215754570042</v>
+        <v>30.29155482737612</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1006,7 +1006,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>27.69512130048098</v>
+        <v>28.523632492153</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1014,7 +1014,7 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>28.86361581824737</v>
+        <v>30.25834972525004</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1022,7 +1022,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>28.83988052509226</v>
+        <v>30.59711451926841</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1030,7 +1030,7 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>28.25861210995179</v>
+        <v>30.40413442190868</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1038,7 +1038,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>35.12636783863957</v>
+        <v>37.94450390306302</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1046,7 +1046,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>36.74474098656167</v>
+        <v>38.07591684714566</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1054,7 +1054,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>34.10251768232911</v>
+        <v>34.5866303593311</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1062,7 +1062,7 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31.28303821676551</v>
+        <v>31.82309979528749</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1070,7 +1070,7 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>37.3422698007878</v>
+        <v>37.0271034589962</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>50.10703115114916</v>
+        <v>50.32934180846085</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1086,7 +1086,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>55.63210159322549</v>
+        <v>56.64753544000401</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1094,7 +1094,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>53.65285498693352</v>
+        <v>55.92593211332932</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1102,7 +1102,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>45.12931025946345</v>
+        <v>46.89411485245606</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1110,7 +1110,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>45.80411557304413</v>
+        <v>48.29447849811264</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1118,7 +1118,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>49.31448115113856</v>
+        <v>51.6554005561352</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1126,7 +1126,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>53.74004260881099</v>
+        <v>55.51848653673394</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1134,7 +1134,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>54.90219013749575</v>
+        <v>57.12611972443287</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1142,7 +1142,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>54.5816144820542</v>
+        <v>56.47034976364167</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1150,7 +1150,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>58.7759145620324</v>
+        <v>60.83347825052312</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1158,7 +1158,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>51.22800159562776</v>
+        <v>54.43424476139236</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1166,7 +1166,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>48.68693462050116</v>
+        <v>50.59708165872488</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1174,7 +1174,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>39.50693032121899</v>
+        <v>41.17390964514197</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1182,7 +1182,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>37.37029772338958</v>
+        <v>39.04616847894819</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1190,7 +1190,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>33.99333449687644</v>
+        <v>35.3539717133354</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1198,7 +1198,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31.13351178183679</v>
+        <v>32.27095317520209</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1206,7 +1206,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>26.6352183887411</v>
+        <v>28.00858588855636</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1214,7 +1214,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>29.79074760944974</v>
+        <v>31.61962108405951</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1222,7 +1222,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31.32917306681568</v>
+        <v>33.30905174432567</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1230,7 +1230,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>38.43592762896341</v>
+        <v>41.22553321369607</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1238,7 +1238,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>36.28767299476642</v>
+        <v>37.16898181128416</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1246,7 +1246,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>38.57544003822586</v>
+        <v>39.57536787396971</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1254,7 +1254,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>35.61540530836552</v>
+        <v>35.75355241477026</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1262,7 +1262,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>49.48704460870419</v>
+        <v>49.08738216575434</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1270,7 +1270,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>50.62017558214475</v>
+        <v>50.29497394739797</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1278,7 +1278,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>56.00340996642975</v>
+        <v>56.68214367557284</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1286,7 +1286,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>55.35820007986116</v>
+        <v>55.35818037148748</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1294,7 +1294,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>57.88605916188349</v>
+        <v>58.3050405141549</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1302,7 +1302,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>65.68714730094793</v>
+        <v>66.88762046917437</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1310,7 +1310,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>66.09060099369738</v>
+        <v>67.10379757644284</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1318,7 +1318,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>68.60365543580542</v>
+        <v>70.1126871128499</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1326,7 +1326,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>68.3656455419983</v>
+        <v>69.66994489092802</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1334,7 +1334,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>68.42818496280128</v>
+        <v>69.63123983190494</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1342,7 +1342,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>57.23791042298409</v>
+        <v>59.30124596936728</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1350,7 +1350,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>51.56559413300671</v>
+        <v>54.01623322936864</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1358,7 +1358,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>45.41502122225571</v>
+        <v>47.4448371223623</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1366,7 +1366,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>39.43561662547353</v>
+        <v>41.15495333020644</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1374,7 +1374,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>36.62914405082127</v>
+        <v>38.2699445112759</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1382,7 +1382,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>34.60265886332887</v>
+        <v>36.20818937632425</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1390,7 +1390,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>31.21656334222093</v>
+        <v>32.34250774663423</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1398,7 +1398,7 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>29.35772114190016</v>
+        <v>30.93068179724666</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1406,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>31.2486095490453</v>
+        <v>33.22800972827211</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1414,7 +1414,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>32.96771813854748</v>
+        <v>35.36851047701246</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1422,7 +1422,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>45.1479178630477</v>
+        <v>47.52771401993741</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1430,7 +1430,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>41.58925681867959</v>
+        <v>42.47526233930487</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1438,7 +1438,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>55.82375755380409</v>
+        <v>57.26756832850132</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1446,7 +1446,7 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>54.27924769790137</v>
+        <v>55.32712746832789</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1454,7 +1454,7 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>61.60177207935046</v>
+        <v>62.15185232633226</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1462,7 +1462,7 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>66.63258698150607</v>
+        <v>66.76780944312117</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1470,7 +1470,7 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>72.426537210348</v>
+        <v>72.72000840474983</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1478,7 +1478,7 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>78.13860667600251</v>
+        <v>78.85920961502916</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1486,7 +1486,7 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>62.27428904693911</v>
+        <v>63.1140818029892</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1494,7 +1494,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>63.42832874898928</v>
+        <v>64.55372562709199</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1502,7 +1502,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>65.83791180560166</v>
+        <v>66.83018857136307</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1510,7 +1510,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>77.21166062994843</v>
+        <v>78.39915817312372</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -1518,7 +1518,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>76.83066672087078</v>
+        <v>78.23939190003493</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -1526,7 +1526,7 @@
         <v>143</v>
       </c>
       <c r="B145">
-        <v>76.25593338436771</v>
+        <v>77.2335001941744</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -1534,7 +1534,7 @@
         <v>144</v>
       </c>
       <c r="B146">
-        <v>70.32126057496639</v>
+        <v>71.70840440453328</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -1542,7 +1542,7 @@
         <v>145</v>
       </c>
       <c r="B147">
-        <v>61.9529758241911</v>
+        <v>64.15955038652837</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -1550,7 +1550,7 @@
         <v>146</v>
       </c>
       <c r="B148">
-        <v>56.92786135988913</v>
+        <v>58.9900490804284</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -1558,7 +1558,7 @@
         <v>147</v>
       </c>
       <c r="B149">
-        <v>40.85615856687441</v>
+        <v>41.93734729557075</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -1566,7 +1566,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>38.55251846287018</v>
+        <v>39.80842195358966</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -1574,7 +1574,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>32.86270561957881</v>
+        <v>33.96671143932984</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -1582,7 +1582,7 @@
         <v>150</v>
       </c>
       <c r="B152">
-        <v>30.31954428336505</v>
+        <v>31.19722230787963</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -1590,7 +1590,7 @@
         <v>151</v>
       </c>
       <c r="B153">
-        <v>27.46620549047068</v>
+        <v>28.53042932048737</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -1598,7 +1598,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>30.49742578353142</v>
+        <v>31.72185846847991</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -1606,7 +1606,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>31.13469302334515</v>
+        <v>32.84417196115035</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -1614,7 +1614,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>42.62037717422087</v>
+        <v>44.94983087293004</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -1622,7 +1622,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>47.49940979762734</v>
+        <v>49.51371114152036</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -1630,7 +1630,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>50.1356625634871</v>
+        <v>52.06945601912927</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -1638,7 +1638,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>48.67225967874497</v>
+        <v>50.35115677069862</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -1646,7 +1646,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>49.48277150350307</v>
+        <v>50.90137710075454</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -1654,7 +1654,7 @@
         <v>159</v>
       </c>
       <c r="B161">
-        <v>50.8032982077664</v>
+        <v>51.62593628171282</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -1662,7 +1662,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>61.51131749046772</v>
+        <v>63.25402865744329</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -1670,7 +1670,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>65.2429207403828</v>
+        <v>67.2137961813356</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -1678,7 +1678,7 @@
         <v>162</v>
       </c>
       <c r="B164">
-        <v>54.08777567559024</v>
+        <v>56.28379582080263</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -1686,7 +1686,7 @@
         <v>163</v>
       </c>
       <c r="B165">
-        <v>55.79295797689537</v>
+        <v>57.91299404214272</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -1694,7 +1694,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>60.73626561201549</v>
+        <v>61.49858106586209</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -1702,7 +1702,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>70.43456976176753</v>
+        <v>71.18942210271915</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -1710,7 +1710,7 @@
         <v>166</v>
       </c>
       <c r="B168">
-        <v>67.63382243047093</v>
+        <v>68.23663053999476</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -1718,7 +1718,7 @@
         <v>167</v>
       </c>
       <c r="B169">
-        <v>71.8514642846762</v>
+        <v>71.86208659945612</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -1726,7 +1726,7 @@
         <v>168</v>
       </c>
       <c r="B170">
-        <v>65.10541867044553</v>
+        <v>65.51337954134399</v>
       </c>
     </row>
   </sheetData>

--- a/results/time_series_results/res_trafo/loading_percent.xlsx
+++ b/results/time_series_results/res_trafo/loading_percent.xlsx
@@ -366,1367 +366,1613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B170"/>
+  <dimension ref="A1:C146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>66.17700029560181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>13.26381132758908</v>
+      </c>
+      <c r="C2">
+        <v>22.38626358693258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64.3132809467015</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>12.9331864346997</v>
+      </c>
+      <c r="C3">
+        <v>19.67334745626619</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>52.96497482736369</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>12.88828020965117</v>
+      </c>
+      <c r="C4">
+        <v>20.12565253719237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>44.7259926005669</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>12.37617638656303</v>
+      </c>
+      <c r="C5">
+        <v>20.69170054895159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>34.1415177915288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>12.94847584522603</v>
+      </c>
+      <c r="C6">
+        <v>18.54654183673338</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>32.731465723733</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>12.22619117786365</v>
+      </c>
+      <c r="C7">
+        <v>18.67154270691102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>29.62944657580023</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>12.80706415843374</v>
+      </c>
+      <c r="C8">
+        <v>19.31245400255558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.03801598453984</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>12.61406143768251</v>
+      </c>
+      <c r="C9">
+        <v>17.85324618029191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>32.44973023476877</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>16.29745052877385</v>
+      </c>
+      <c r="C10">
+        <v>13.37348021799628</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>33.07407515792746</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>18.17090349421418</v>
+      </c>
+      <c r="C11">
+        <v>16.19079504756123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>39.99455994298932</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>18.41106958408614</v>
+      </c>
+      <c r="C12">
+        <v>20.98105045857146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>44.01141962262463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>17.66936654245132</v>
+      </c>
+      <c r="C13">
+        <v>22.88166369545796</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>51.53389371092675</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>22.87419768567622</v>
+      </c>
+      <c r="C14">
+        <v>20.30036157830943</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>56.070251801041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>34.87240214402478</v>
+      </c>
+      <c r="C15">
+        <v>19.72669048898627</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>56.29471670192135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>34.4742176448068</v>
+      </c>
+      <c r="C16">
+        <v>21.17989690964955</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>57.70559493094466</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>35.20039994340552</v>
+      </c>
+      <c r="C17">
+        <v>21.53004551719367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>62.145223502939</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>33.1859048100651</v>
+      </c>
+      <c r="C18">
+        <v>22.1847783112328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>63.61772793411302</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>28.32973471644512</v>
+      </c>
+      <c r="C19">
+        <v>21.40321509912232</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>56.76363197214196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>24.15858317726668</v>
+      </c>
+      <c r="C20">
+        <v>21.60046013180234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>47.22948740819205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>20.40748365679853</v>
+      </c>
+      <c r="C21">
+        <v>19.68132318257591</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>40.94637459894447</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>20.29256509371606</v>
+      </c>
+      <c r="C22">
+        <v>21.74601617906981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>52.25011844988872</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>20.07325121049586</v>
+      </c>
+      <c r="C23">
+        <v>30.816784787546</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>59.61840881277823</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>15.39554208950925</v>
+      </c>
+      <c r="C24">
+        <v>30.5217160829496</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>64.86976160150824</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>12.51948977852466</v>
+      </c>
+      <c r="C25">
+        <v>27.16349828027227</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>54.44265081577156</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>13.24375077496608</v>
+      </c>
+      <c r="C26">
+        <v>24.74016223709712</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>49.17450650012289</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>13.09659322132134</v>
+      </c>
+      <c r="C27">
+        <v>21.679609053981</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>48.70924132182846</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>12.91504174925277</v>
+      </c>
+      <c r="C28">
+        <v>21.56027091178231</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>38.393284699859</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>12.83096028351275</v>
+      </c>
+      <c r="C29">
+        <v>20.54339845359136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>28.06752085121362</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>12.88924466973629</v>
+      </c>
+      <c r="C30">
+        <v>19.34576829737668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>27.33198928609488</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>12.46121336849012</v>
+      </c>
+      <c r="C31">
+        <v>19.87043182636264</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>24.74496832263974</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>13.40814941182974</v>
+      </c>
+      <c r="C32">
+        <v>18.67027659593552</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>25.25317975027831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>13.21890443160279</v>
+      </c>
+      <c r="C33">
+        <v>18.16526079947453</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>30.14288113235389</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>17.01682405627889</v>
+      </c>
+      <c r="C34">
+        <v>13.73090122600411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>29.70840259031852</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>19.89028780986501</v>
+      </c>
+      <c r="C35">
+        <v>14.69727703252322</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>40.87703349997156</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>19.5120640753949</v>
+      </c>
+      <c r="C36">
+        <v>18.83397534831398</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>46.11887002230749</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>18.92516500592514</v>
+      </c>
+      <c r="C37">
+        <v>19.94491212035021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>50.93849776370165</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>22.72186357699269</v>
+      </c>
+      <c r="C38">
+        <v>16.0176252915171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>46.74816006326821</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>32.48314586602154</v>
+      </c>
+      <c r="C39">
+        <v>13.50167331290023</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>49.99990994542433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>37.00939852626882</v>
+      </c>
+      <c r="C40">
+        <v>19.873795864748</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>56.82549467034864</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>33.18959466205889</v>
+      </c>
+      <c r="C41">
+        <v>22.35257742888483</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>67.4779197722988</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>33.6609616487368</v>
+      </c>
+      <c r="C42">
+        <v>21.83565807761467</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>68.78612266586023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>27.07526186890118</v>
+      </c>
+      <c r="C43">
+        <v>26.45103008535281</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>62.15966594805615</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>22.24509922295898</v>
+      </c>
+      <c r="C44">
+        <v>29.29936882440767</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>55.51085794097689</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>20.5540439918051</v>
+      </c>
+      <c r="C45">
+        <v>21.00754190031263</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>56.86509085405302</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>20.59618978161801</v>
+      </c>
+      <c r="C46">
+        <v>27.9545235552122</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>50.43259827774139</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>20.70061795740147</v>
+      </c>
+      <c r="C47">
+        <v>34.22867629174083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>55.4733499674328</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>14.77882174303633</v>
+      </c>
+      <c r="C48">
+        <v>34.58640664747787</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>57.78630654419283</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>12.65228576966012</v>
+      </c>
+      <c r="C49">
+        <v>30.59388174371818</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>46.8960476613962</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>13.31541930348534</v>
+      </c>
+      <c r="C50">
+        <v>23.53760847970599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>49.25238529537926</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>13.28674923883868</v>
+      </c>
+      <c r="C51">
+        <v>21.61381458870943</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>46.66073956877849</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>13.66519410332791</v>
+      </c>
+      <c r="C52">
+        <v>23.7571493797275</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>42.18633315878134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>12.67807953090054</v>
+      </c>
+      <c r="C53">
+        <v>23.11134999942714</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>35.22892279998657</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>12.83190537229712</v>
+      </c>
+      <c r="C54">
+        <v>21.6653258900194</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>34.27539012394472</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>12.52425547532752</v>
+      </c>
+      <c r="C55">
+        <v>21.58695463549908</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>28.73538249342027</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>12.84719236297493</v>
+      </c>
+      <c r="C56">
+        <v>20.61586048621711</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>25.83296794820368</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>12.49845581777011</v>
+      </c>
+      <c r="C57">
+        <v>17.17140842015257</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>29.30831508578762</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>14.24347195201116</v>
+      </c>
+      <c r="C58">
+        <v>14.86756664083032</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>29.65020586840537</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>17.90395728235219</v>
+      </c>
+      <c r="C59">
+        <v>15.58794082290692</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>44.92174386856171</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>19.52009923691796</v>
+      </c>
+      <c r="C60">
+        <v>16.59674598097576</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>47.509948393804</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>21.1354588494611</v>
+      </c>
+      <c r="C61">
+        <v>19.69864549658918</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>48.6273880378031</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>27.28325376222408</v>
+      </c>
+      <c r="C62">
+        <v>18.40994469872028</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>43.52945576293099</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>30.04207842697874</v>
+      </c>
+      <c r="C63">
+        <v>14.91935219010347</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>45.31774427951957</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>36.89291154068589</v>
+      </c>
+      <c r="C64">
+        <v>16.23753154853006</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>49.04152268889943</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>34.3967048194983</v>
+      </c>
+      <c r="C65">
+        <v>21.40662716013139</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>62.77095021359782</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>32.62398022228087</v>
+      </c>
+      <c r="C66">
+        <v>19.33386023196241</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>66.27517418915802</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>25.14044146308126</v>
+      </c>
+      <c r="C67">
+        <v>23.42787454846594</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>55.82828162788915</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>20.65300870699823</v>
+      </c>
+      <c r="C68">
+        <v>29.84293249321183</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>51.61245814815128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>20.30051619333517</v>
+      </c>
+      <c r="C69">
+        <v>30.03155027255534</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>43.70508935088786</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>19.32946620928379</v>
+      </c>
+      <c r="C70">
+        <v>35.48625741301453</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>40.65370866331708</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>19.82919618298463</v>
+      </c>
+      <c r="C71">
+        <v>39.65601873737851</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>41.61706670490064</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>15.75513899142142</v>
+      </c>
+      <c r="C72">
+        <v>35.17360875595526</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>50.14050718741972</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>12.59304245464351</v>
+      </c>
+      <c r="C73">
+        <v>30.73945153539068</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>44.22017501267501</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>12.98860537486043</v>
+      </c>
+      <c r="C74">
+        <v>23.55786440501028</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>42.64328513077786</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>13.22367387359872</v>
+      </c>
+      <c r="C75">
+        <v>21.05737246474112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>41.03976526218637</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>13.11760208543076</v>
+      </c>
+      <c r="C76">
+        <v>21.65143731511292</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>34.61328945246705</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>12.81852095217527</v>
+      </c>
+      <c r="C77">
+        <v>22.4108091545384</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31.40423714089812</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>12.90547056888482</v>
+      </c>
+      <c r="C78">
+        <v>18.94431830716588</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>30.29155482737612</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>11.96538593341322</v>
+      </c>
+      <c r="C79">
+        <v>19.17567682259268</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>28.523632492153</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>12.4755164168892</v>
+      </c>
+      <c r="C80">
+        <v>18.36275537745317</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>30.25834972525004</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>12.1191752139236</v>
+      </c>
+      <c r="C81">
+        <v>17.50410395798649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>30.59711451926841</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>19.17041690867817</v>
+      </c>
+      <c r="C82">
+        <v>14.35241310516455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>30.40413442190868</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>20.90594773339961</v>
+      </c>
+      <c r="C83">
+        <v>17.77950643355669</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>37.94450390306302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>20.46494914860503</v>
+      </c>
+      <c r="C84">
+        <v>17.47331079297184</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>38.07591684714566</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>22.82782805613116</v>
+      </c>
+      <c r="C85">
+        <v>21.35138931420984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>34.5866303593311</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>26.6844926625113</v>
+      </c>
+      <c r="C86">
+        <v>23.95213434811394</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31.82309979528749</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>37.16246877408446</v>
+      </c>
+      <c r="C87">
+        <v>25.03883915029059</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>37.0271034589962</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>34.47799415281149</v>
+      </c>
+      <c r="C88">
+        <v>25.64221977114167</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>50.32934180846085</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>32.60130021966076</v>
+      </c>
+      <c r="C89">
+        <v>23.05226893536111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>56.64753544000401</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>33.07537461043915</v>
+      </c>
+      <c r="C90">
+        <v>20.80439270001405</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>55.92593211332932</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>29.36214716823657</v>
+      </c>
+      <c r="C91">
+        <v>21.29174341693769</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>46.89411485245606</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>24.52216655274455</v>
+      </c>
+      <c r="C92">
+        <v>25.16191221131277</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>48.29447849811264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>22.32855366286045</v>
+      </c>
+      <c r="C93">
+        <v>26.91309372325646</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>51.6554005561352</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>23.21331608554891</v>
+      </c>
+      <c r="C94">
+        <v>31.21112486240517</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>55.51848653673394</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>21.34445865586843</v>
+      </c>
+      <c r="C95">
+        <v>30.92424660267344</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>57.12611972443287</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>22.14457087693877</v>
+      </c>
+      <c r="C96">
+        <v>29.5443597051899</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>56.47034976364167</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>24.53752592187318</v>
+      </c>
+      <c r="C97">
+        <v>26.14188048713071</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>60.83347825052312</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>21.65199064386507</v>
+      </c>
+      <c r="C98">
+        <v>22.06808864100066</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>54.43424476139236</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>19.49107322994882</v>
+      </c>
+      <c r="C99">
+        <v>23.38210235449925</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>50.59708165872488</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>15.27507244676448</v>
+      </c>
+      <c r="C100">
+        <v>21.33912960824575</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>41.17390964514197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>12.92171791634155</v>
+      </c>
+      <c r="C101">
+        <v>21.55435860979599</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>39.04616847894819</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>12.93987261396875</v>
+      </c>
+      <c r="C102">
+        <v>22.17228167604782</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>35.3539717133354</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>12.48412337527481</v>
+      </c>
+      <c r="C103">
+        <v>21.21239457860044</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>32.27095317520209</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>12.4736128219483</v>
+      </c>
+      <c r="C104">
+        <v>19.95393375697479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>28.00858588855636</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>12.25292700023722</v>
+      </c>
+      <c r="C105">
+        <v>17.28387912481561</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>31.61962108405951</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>15.53328481148383</v>
+      </c>
+      <c r="C106">
+        <v>15.87348728365954</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>33.30905174432567</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>18.41036777992081</v>
+      </c>
+      <c r="C107">
+        <v>15.5139550604052</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>41.22553321369607</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>21.14571981117253</v>
+      </c>
+      <c r="C108">
+        <v>16.2108319581767</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>37.16898181128416</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>21.75062090462844</v>
+      </c>
+      <c r="C109">
+        <v>21.3024563853718</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>39.57536787396971</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>23.79254990340676</v>
+      </c>
+      <c r="C110">
+        <v>22.44528892936594</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>35.75355241477026</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>34.03658201594422</v>
+      </c>
+      <c r="C111">
+        <v>18.88479428593953</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>49.08738216575434</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>34.65494246706198</v>
+      </c>
+      <c r="C112">
+        <v>19.38589321028453</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>50.29497394739797</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>33.09241402687132</v>
+      </c>
+      <c r="C113">
+        <v>23.85626108505453</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>56.68214367557284</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>34.32446771794852</v>
+      </c>
+      <c r="C114">
+        <v>21.23946853342709</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>55.35818037148748</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>24.86010270268279</v>
+      </c>
+      <c r="C115">
+        <v>21.83288490173215</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>58.3050405141549</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>25.2185181247995</v>
+      </c>
+      <c r="C116">
+        <v>23.8815777481693</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>66.88762046917437</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>24.3016223008358</v>
+      </c>
+      <c r="C117">
+        <v>27.51587873502712</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>67.10379757644284</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>21.36883298316367</v>
+      </c>
+      <c r="C118">
+        <v>26.74563068779524</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>70.1126871128499</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>20.07981017597612</v>
+      </c>
+      <c r="C119">
+        <v>25.82039808580033</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>69.66994489092802</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>19.85675977901565</v>
+      </c>
+      <c r="C120">
+        <v>24.44985283826024</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>69.63123983190494</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>21.43356960594117</v>
+      </c>
+      <c r="C121">
+        <v>22.82577779160143</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>59.30124596936728</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>17.63463722624419</v>
+      </c>
+      <c r="C122">
+        <v>20.13935097760135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>54.01623322936864</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>15.69916058646104</v>
+      </c>
+      <c r="C123">
+        <v>18.00028681645878</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>47.4448371223623</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>10.24061089896706</v>
+      </c>
+      <c r="C124">
+        <v>18.45770841566409</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>41.15495333020644</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>9.958953370962409</v>
+      </c>
+      <c r="C125">
+        <v>17.26929364996086</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>38.2699445112759</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>9.820524464202119</v>
+      </c>
+      <c r="C126">
+        <v>15.93368290378198</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>36.20818937632425</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>9.892126637411915</v>
+      </c>
+      <c r="C127">
+        <v>16.7109813075439</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>32.34250774663423</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>9.74224641852363</v>
+      </c>
+      <c r="C128">
+        <v>16.63456315637277</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>30.93068179724666</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>9.87112271935659</v>
+      </c>
+      <c r="C129">
+        <v>14.52807332189519</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>33.22800972827211</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>14.01532429160107</v>
+      </c>
+      <c r="C130">
+        <v>13.27843321413296</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>35.36851047701246</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>15.37396736786279</v>
+      </c>
+      <c r="C131">
+        <v>13.89727022573301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>47.52771401993741</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>17.17429319445593</v>
+      </c>
+      <c r="C132">
+        <v>14.55374709258218</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>42.47526233930487</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>18.25353118821124</v>
+      </c>
+      <c r="C133">
+        <v>15.82532874789006</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>57.26756832850132</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>28.03914909720754</v>
+      </c>
+      <c r="C134">
+        <v>15.68296498615667</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>55.32712746832789</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>38.26883079692438</v>
+      </c>
+      <c r="C135">
+        <v>13.52305842356875</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>62.15185232633226</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>36.32043651185047</v>
+      </c>
+      <c r="C136">
+        <v>20.99030898851253</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>66.76780944312117</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>35.01965042623642</v>
+      </c>
+      <c r="C137">
+        <v>27.83676898669947</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>72.72000840474983</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>34.00149690832917</v>
+      </c>
+      <c r="C138">
+        <v>23.63990040603765</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>78.85920961502916</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>24.28582188933498</v>
+      </c>
+      <c r="C139">
+        <v>19.6601872410887</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>63.1140818029892</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>21.63771864745457</v>
+      </c>
+      <c r="C140">
+        <v>19.8341542623668</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>64.55372562709199</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>20.36748252388458</v>
+      </c>
+      <c r="C141">
+        <v>20.23909410151939</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>66.83018857136307</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>21.99523696563989</v>
+      </c>
+      <c r="C142">
+        <v>23.74985325666406</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>78.39915817312372</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>21.63868255846723</v>
+      </c>
+      <c r="C143">
+        <v>25.84461578960285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>78.23939190003493</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>21.55156271843053</v>
+      </c>
+      <c r="C144">
+        <v>27.78694797799552</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>77.2335001941744</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
+        <v>23.45988023002135</v>
+      </c>
+      <c r="C145">
+        <v>25.86195301543878</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>71.70840440453328</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>64.15955038652837</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>58.9900490804284</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>41.93734729557075</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>39.80842195358966</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>33.96671143932984</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>31.19722230787963</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>28.53042932048737</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>31.72185846847991</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>32.84417196115035</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>44.94983087293004</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>49.51371114152036</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>52.06945601912927</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>50.35115677069862</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>50.90137710075454</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>51.62593628171282</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>63.25402865744329</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>67.2137961813356</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>56.28379582080263</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>57.91299404214272</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>61.49858106586209</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>71.18942210271915</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>68.23663053999476</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>71.86208659945612</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>65.51337954134399</v>
+        <v>20.93645798418313</v>
+      </c>
+      <c r="C146">
+        <v>24.15994528122648</v>
       </c>
     </row>
   </sheetData>
